--- a/results/pvalue_SIDER_rare_indication_AUROC.xlsx
+++ b/results/pvalue_SIDER_rare_indication_AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>40.637</t>
+          <t>9.326</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>36.89</t>
+          <t>8.645</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.914</t>
+          <t>9.163</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>48.319</t>
+          <t>12.043</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.981</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5.437</t>
+          <t>5.438</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.083</t>
+          <t>5.084</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.669</t>
+          <t>11.672</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.678</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-3.755</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
